--- a/medicine/Pharmacie/Ester_de_cellulose/Ester_de_cellulose.xlsx
+++ b/medicine/Pharmacie/Ester_de_cellulose/Ester_de_cellulose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un ester de cellulose est un polymère artificiel dérivé de la cellulose. Il appartient à la famille des polymères cellulosiques.
 </t>
@@ -511,7 +523,9 @@
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les groupements hydroxyle (-OH) de la cellulose peuvent réagir partiellement ou totalement avec différents réactifs chimiques pour donner les esters de cellulose (-(C=O)R par exemple). Selon le type d'ester de cellulose recherché, les réactifs sont des acides organiques ou inorganiques.
 </t>
@@ -542,7 +556,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tableau suivant présente les deux principales familles d'esters de cellulose, le type de réactif donnant chacune de ces familles ainsi que des exemples de chaque famille. Chaque exemple est suivi par le nom du réactif utilisé pour sa synthèse ainsi que par la fonction qui substitue la fonction hydroxyle.
 </t>
@@ -573,10 +589,12 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les propriétés des esters de cellulose varient avec le groupe de substitution du groupement hydroxyle, le degré de substitution et le degré de polymérisation de la molécule.
-Les esters de celluloses sont[2] :
+Les esters de celluloses sont :
 amorphes et donc transparents ;
 solubles dans l'acétone et l'acide acétique ;
 peu électrostatiques ;
@@ -608,7 +626,9 @@
           <t>Mise en forme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les méthodes de mise en forme des matières plastiques, telles que le moulage par injection, le rotomoulage, le thermoformage ou l'extrusion, peuvent être appliquées aux esters de cellulose.
 </t>
@@ -639,7 +659,9 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les esters de cellulose peuvent être utilisés pour fabriquer des manches d'outils, des emballages transparents et des revêtements pour protection facilement pelables dès utilisation. Ainsi que filtres pour laboratoire ou filtres à usages médicaux.
 </t>
